--- a/Tester Results/RECORDER_EFFECT_RANGE_BY_SEX_METRIC.xlsx
+++ b/Tester Results/RECORDER_EFFECT_RANGE_BY_SEX_METRIC.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5524691358024691</v>
+        <v>0.5216049382716049</v>
       </c>
       <c r="E2" t="n">
-        <v>-2936.567949074073</v>
+        <v>-2747.835587962965</v>
       </c>
       <c r="F2" t="n">
-        <v>-963.9319907407407</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3672839506172839</v>
+        <v>0.3657407407407407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6398148148148124</v>
+        <v>-0.7388888888888872</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5611111111111136</v>
+        <v>-0.5972222222222285</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.5509259259259258</v>
+        <v>-0.4799382716049383</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4814814814814814</v>
+        <v>-0.4475308641975309</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4666666666666668</v>
+        <v>0.4416666666666647</v>
       </c>
       <c r="F4" t="n">
-        <v>1.136111111111111</v>
+        <v>1.023148148148147</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +552,13 @@
         <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8364197530864197</v>
+        <v>-0.8703703703703705</v>
       </c>
       <c r="E5" t="n">
-        <v>4781.887222222222</v>
+        <v>4737.355986111112</v>
       </c>
       <c r="F5" t="n">
-        <v>12843.35945833333</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.8950617283950617</v>
+        <v>-0.882716049382716</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3348765432098766</v>
+        <v>-0.882716049382716</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4064814814814781</v>
+        <v>5.812962962962967</v>
       </c>
       <c r="F6" t="n">
-        <v>5.731481481481485</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="7">
@@ -600,13 +600,13 @@
         <v>-1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.6728395061728396</v>
       </c>
       <c r="E7" t="n">
-        <v>13.60138888888895</v>
+        <v>27.66805555555555</v>
       </c>
       <c r="F7" t="n">
-        <v>135.9819444444444</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8657407407407407</v>
+        <v>0.8580246913580247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8657407407407407</v>
+        <v>0.8580246913580247</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.229629629629631</v>
+        <v>-1.22037037037037</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.229629629629631</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
   </sheetData>
